--- a/8DIO/Claire Woodwinds/Claire Oboe Virtuoso/xlsx/Claire Oboe Virtuoso.xlsx
+++ b/8DIO/Claire Woodwinds/Claire Oboe Virtuoso/xlsx/Claire Oboe Virtuoso.xlsx
@@ -28,6 +28,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -50,6 +65,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,6 +108,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -100,6 +145,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,6 +188,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -144,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="173">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -661,13 +736,31 @@
   </si>
   <si>
     <t>MP-F SHRT</t>
+  </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>Oboe Arcs</t>
+  </si>
+  <si>
+    <t>Oboe Bonus FX Runs</t>
+  </si>
+  <si>
+    <t>Oboe General Arts</t>
+  </si>
+  <si>
+    <t>Oboe Leg Lyrical</t>
+  </si>
+  <si>
+    <t>Oboe Leg Strong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,8 +807,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,6 +861,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,6 +990,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -1207,95 +1319,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1303,25 +1376,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1330,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -1341,13 +1410,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1356,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -1367,13 +1436,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -1382,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -1392,14 +1461,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>164</v>
+      <c r="A8" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>164</v>
+      <c r="C8" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1408,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -1418,14 +1487,14 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>165</v>
+      <c r="A9" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>165</v>
+      <c r="C9" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1434,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6">
         <v>120</v>
@@ -1445,13 +1514,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -1460,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6">
         <v>120</v>
@@ -1470,25 +1539,53 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6">
+        <v>120</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6">
+        <v>120</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="3"/>
@@ -1496,7 +1593,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -2885,17 +2982,44 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -2910,19 +3034,19 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2932,13 +3056,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2953,95 +3077,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>145</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -3049,25 +3134,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -3076,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -3087,13 +3168,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -3102,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -3112,33 +3193,61 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="17"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6">
+        <v>120</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="6">
+        <v>120</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
       <c r="F9" s="2"/>
@@ -3174,7 +3283,7 @@
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6"/>
       <c r="F12" s="2"/>
@@ -3186,7 +3295,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -4575,18 +4684,45 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4600,19 +4736,19 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4622,13 +4758,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4643,95 +4779,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -4739,25 +4836,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -4766,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -4777,13 +4870,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -4792,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -4803,13 +4896,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -4818,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -4828,14 +4921,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>153</v>
+      <c r="A8" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>153</v>
+      <c r="C8" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -4844,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -4854,25 +4947,53 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6">
+        <v>120</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6">
+        <v>120</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="3"/>
@@ -4892,7 +5013,7 @@
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6"/>
       <c r="F12" s="2"/>
@@ -4904,7 +5025,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -6293,17 +6414,44 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -6318,19 +6466,19 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6340,13 +6488,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6361,95 +6509,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>155</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -6457,25 +6566,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -6484,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -6495,13 +6600,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -6510,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -6521,13 +6626,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -6536,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -6546,14 +6651,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>159</v>
+      <c r="A8" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>159</v>
+      <c r="C8" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -6562,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -6572,14 +6677,14 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>149</v>
+      <c r="A9" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>149</v>
+      <c r="C9" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -6588,7 +6693,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6">
         <v>120</v>
@@ -6599,13 +6704,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -6614,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6">
         <v>120</v>
@@ -6624,25 +6729,53 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6">
+        <v>120</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6">
+        <v>120</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="3"/>
@@ -6650,7 +6783,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -8039,18 +8172,45 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8064,19 +8224,19 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose from Drop-down list" prompt="If don’t use MIDI Note, set Cell value empty">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8086,13 +8246,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8107,95 +8267,56 @@
     <col min="10" max="10" width="50.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6">
-        <v>120</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>155</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -8203,25 +8324,21 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6">
-        <v>120</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -8230,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -8241,13 +8358,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -8256,7 +8373,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -8267,13 +8384,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -8282,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>
@@ -8292,14 +8409,14 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>159</v>
+      <c r="A8" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>159</v>
+      <c r="C8" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -8308,7 +8425,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6">
         <v>120</v>
@@ -8318,14 +8435,14 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>149</v>
+      <c r="A9" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>149</v>
+      <c r="C9" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -8334,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6">
         <v>120</v>
@@ -8345,13 +8462,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -8360,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6">
         <v>120</v>
@@ -8370,25 +8487,53 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6">
+        <v>120</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6">
+        <v>120</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="3"/>
@@ -8396,7 +8541,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
       <c r="F13" s="2"/>
@@ -9785,17 +9930,44 @@
       <c r="I128" s="6"/>
       <c r="J128" s="3"/>
     </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G2:G128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty" sqref="G4:G130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -9810,19 +9982,19 @@
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$130</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F128</xm:sqref>
+          <xm:sqref>F4:F130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
